--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 6/Lab 6.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 6/Lab 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC9C50-243E-43B2-9088-D57F8324EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE3B22-A7D3-44B6-BE06-B9D4A0F47225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Vin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,23 +48,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.a</t>
+    <t>Experiment 6.c The voltage follower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.b</t>
+    <t>Experiment 6.b The Noninverting Configuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10k</t>
+    <t>Experiment 6.a The Inverting Configuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>10 kΩ</t>
   </si>
   <si>
-    <t>6.c</t>
+    <r>
+      <t>20 k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +101,38 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -392,422 +435,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="136" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>-1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2.0520999999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.5394000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.02905</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.51619999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.5131</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-1.0239100000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>-1.5365</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-2.0497999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>B3/B2</f>
         <v>-1.0260499999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:E4" si="0">C3/C2</f>
         <v>-1.0262666666666667</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>-1.02905</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>-1.0324</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>F3/F2</f>
         <v>-1.0262</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>G3/G2</f>
         <v>-1.0239100000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>H3/H2</f>
         <v>-1.0243333333333333</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>I3/I2</f>
         <v>-1.0248999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
         <v>-2</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="3">
         <v>-1</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>0.5</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="3">
         <v>1.5</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="1">
         <v>-4.0545</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="1">
         <v>-3.0394000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="1">
         <v>-2.0255999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="1">
         <v>-1.01139</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="1">
         <v>1.0135400000000001</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="1">
         <v>2.0272000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="1">
         <v>3.0367999999999999</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="1">
         <v>4.0544000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
-        <f>B8/B7</f>
+      <c r="B10" s="1">
+        <f>B9/B8</f>
         <v>2.02725</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9" si="1">C8/C7</f>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10" si="1">C9/C8</f>
         <v>2.0262666666666669</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9" si="2">D8/D7</f>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10" si="2">D9/D8</f>
         <v>2.0255999999999998</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9" si="3">E8/E7</f>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10" si="3">E9/E8</f>
         <v>2.02278</v>
       </c>
-      <c r="F9">
-        <f>F8/F7</f>
+      <c r="F10" s="1">
+        <f>F9/F8</f>
         <v>2.0270800000000002</v>
       </c>
-      <c r="G9">
-        <f>G8/G7</f>
+      <c r="G10" s="1">
+        <f>G9/G8</f>
         <v>2.0272000000000001</v>
       </c>
-      <c r="H9">
-        <f>H8/H7</f>
+      <c r="H10" s="1">
+        <f>H9/H8</f>
         <v>2.0245333333333333</v>
       </c>
-      <c r="I9">
-        <f>I8/I7</f>
+      <c r="I10" s="1">
+        <f>I9/I8</f>
         <v>2.0272000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="3">
         <v>-2</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="3">
         <v>-1</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="3">
         <v>0.5</v>
       </c>
-      <c r="G12">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="3">
         <v>1.5</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="1">
         <v>-6.0774999999999997</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="1">
         <v>-4.5721999999999996</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="1">
         <v>-3.0438999999999998</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="1">
         <v>-1.5202</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="1">
         <v>1.5192000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G14" s="1">
         <v>3.0644999999999998</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="1">
         <v>4.5712000000000002</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="1">
         <v>6.0856000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <f>B13/B12</f>
+      <c r="B15" s="1">
+        <f>B14/B13</f>
         <v>3.0387499999999998</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14" si="4">C13/C12</f>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15" si="4">C14/C13</f>
         <v>3.0481333333333329</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14" si="5">D13/D12</f>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15" si="5">D14/D13</f>
         <v>3.0438999999999998</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14" si="6">E13/E12</f>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="6">E14/E13</f>
         <v>3.0404</v>
       </c>
-      <c r="F14">
-        <f>F13/F12</f>
+      <c r="F15" s="1">
+        <f>F14/F13</f>
         <v>3.0384000000000002</v>
       </c>
-      <c r="G14">
-        <f>G13/G12</f>
+      <c r="G15" s="1">
+        <f>G14/G13</f>
         <v>3.0644999999999998</v>
       </c>
-      <c r="H14">
-        <f>H13/H12</f>
+      <c r="H15" s="1">
+        <f>H14/H13</f>
         <v>3.0474666666666668</v>
       </c>
-      <c r="I14">
-        <f>I13/I12</f>
+      <c r="I15" s="1">
+        <f>I14/I13</f>
         <v>3.0428000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="3">
         <v>-2</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="3">
         <v>-1</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="3">
         <v>0.5</v>
       </c>
-      <c r="G17">
+      <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="3">
         <v>1.5</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="1">
         <v>-2.0013000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="1">
         <v>-1.5118</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="1">
         <v>-1.4935</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="1">
         <v>-0.50631999999999999</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="1">
         <v>0.49891000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="1">
         <v>1.0366500000000001</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="1">
         <v>1.5066999999999999</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="1">
         <v>2.0188000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
-        <f>B18/B17</f>
+      <c r="B20" s="1">
+        <f>B19/B18</f>
         <v>1.00065</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19" si="7">C18/C17</f>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20" si="7">C19/C18</f>
         <v>1.0078666666666667</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19" si="8">D18/D17</f>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20" si="8">D19/D18</f>
         <v>1.4935</v>
       </c>
-      <c r="E19">
-        <f t="shared" ref="E19" si="9">E18/E17</f>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20" si="9">E19/E18</f>
         <v>1.01264</v>
       </c>
-      <c r="F19">
-        <f>F18/F17</f>
+      <c r="F20" s="1">
+        <f>F19/F18</f>
         <v>0.99782000000000004</v>
       </c>
-      <c r="G19">
-        <f>G18/G17</f>
+      <c r="G20" s="1">
+        <f>G19/G18</f>
         <v>1.0366500000000001</v>
       </c>
-      <c r="H19">
-        <f>H18/H17</f>
+      <c r="H20" s="1">
+        <f>H19/H18</f>
         <v>1.0044666666666666</v>
       </c>
-      <c r="I19">
-        <f>I18/I17</f>
+      <c r="I20" s="1">
+        <f>I19/I18</f>
         <v>1.0094000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>